--- a/biology/Médecine/Centre_Antoine-Lacassagne/Centre_Antoine-Lacassagne.xlsx
+++ b/biology/Médecine/Centre_Antoine-Lacassagne/Centre_Antoine-Lacassagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre Antoine-Lacassagne est un centre régional de lutte contre le cancer à Nice, en France dirigé par le Professeur Emmanuel Barranger.
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre a été nommé en l'honneur d'Antoine Lacassagne (1884-1971), médecin à la tête de l'Institut du radium de 1937 et 1954, professeur de 1951 à 1954 au Collège de France à la chaire de médecine expérimentale où ses cours sont consacrés à la cancérologie et président de la Ligue nationale contre le cancer de 1956 à 1971.
 </t>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre de lutte contre le cancer (CLC) de Nice est créé par arrêté ministériel du 18 octobre 1954. Son directeur fondateur est le docteur Vincent Paschetta.
-En 1958, débutent les travaux de construction du centre sur un terrain adjacent à l'hôpital Pasteur en 1958. Le centre est inauguré le 23 décembre 1961[1].
+En 1958, débutent les travaux de construction du centre sur un terrain adjacent à l'hôpital Pasteur en 1958. Le centre est inauguré le 23 décembre 1961.
 </t>
         </is>
       </c>
